--- a/com.DataConsolidation/src/test/resources/arams_valid.xlsx
+++ b/com.DataConsolidation/src/test/resources/arams_valid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Movement ID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Herd Mark</t>
+  </si>
+  <si>
+    <t>Animal Count</t>
   </si>
   <si>
     <t>Animal Description</t>
@@ -369,7 +372,7 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -377,11 +380,14 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
